--- a/Main/Skak Tidsplan.xlsx
+++ b/Main/Skak Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ChessBoard\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asbjo\Documents\GitHub\ChessBoard\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4FC990-398F-4AAA-896D-ED2A50C7E63E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2692BE-C436-4C8F-9BA6-26F7AA4CE92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -318,6 +318,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -333,14 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,15 +829,15 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="23"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
@@ -846,13 +846,13 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
       <c r="J6" s="4"/>
@@ -867,15 +867,15 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
@@ -884,13 +884,13 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8" s="4"/>
@@ -903,15 +903,15 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="J9" s="4"/>
@@ -920,13 +920,13 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
       <c r="J10" s="4"/>
@@ -935,15 +935,15 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
       <c r="J11" s="4"/>
@@ -952,13 +952,13 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
       <c r="J12" s="4"/>
@@ -967,16 +967,16 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="19"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="2"/>
       <c r="J13" s="4"/>
       <c r="K13" s="2"/>
@@ -984,109 +984,109 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="19"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="4"/>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
       <c r="J20" s="4"/>
@@ -1095,30 +1095,30 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
       <c r="J21" s="4"/>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="19"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
       <c r="J22" s="4"/>
@@ -1127,13 +1127,13 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
       <c r="J23" s="4"/>
@@ -1142,13 +1142,13 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="19"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
       <c r="J24" s="4"/>
@@ -1157,13 +1157,13 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
       <c r="J25" s="4"/>
@@ -1172,13 +1172,13 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
       <c r="J26" s="4"/>
@@ -1187,13 +1187,13 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
       <c r="J27" s="4"/>
@@ -1202,13 +1202,13 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
       <c r="J28" s="4"/>
@@ -1217,13 +1217,13 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
       <c r="J29" s="4"/>
@@ -1232,13 +1232,13 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
       <c r="J30" s="4"/>
@@ -1247,13 +1247,13 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
       <c r="J31" s="4"/>
@@ -1262,13 +1262,13 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="19"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
       <c r="J32" s="4"/>
@@ -1277,13 +1277,13 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
       <c r="J33" s="4"/>
@@ -1292,13 +1292,13 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
       <c r="J34" s="4"/>
@@ -1307,13 +1307,13 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="24"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
       <c r="J35" s="4"/>
@@ -1322,13 +1322,13 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="4"/>
       <c r="I36" s="2"/>
       <c r="J36" s="4"/>
@@ -1338,13 +1338,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A27:A28"/>
@@ -1354,6 +1347,13 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:E5 H5:M36 B6:E36">

--- a/Main/Skak Tidsplan.xlsx
+++ b/Main/Skak Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asbjo\Documents\GitHub\ChessBoard\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2692BE-C436-4C8F-9BA6-26F7AA4CE92A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA7378-3A0A-4F23-9480-68A99A3E31F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="6"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2"/>
@@ -1057,7 +1057,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="4"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2"/>

--- a/Main/Skak Tidsplan.xlsx
+++ b/Main/Skak Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asbjo\Documents\GitHub\ChessBoard\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ChessBoard\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA7378-3A0A-4F23-9480-68A99A3E31F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2C32B-AFCD-4CD2-881E-0E820603572B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1058,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="12"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2"/>
     </row>
@@ -1090,8 +1090,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1338,6 +1338,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A27:A28"/>
@@ -1347,13 +1354,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:E5 H5:M36 B6:E36">
